--- a/docss/trend/spain/E_mucopolysaccharidosis.xlsx
+++ b/docss/trend/spain/E_mucopolysaccharidosis.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej3_Mucopolisacaridosi_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej3_Mucopolisacarido" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12813,7 +12813,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12837,13 +12837,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>2.1957245660345199E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>2.0461812882711299E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D2">
-        <v>2.3251673063886501E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12851,13 +12851,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>2.41252888944215E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C3">
-        <v>3.3019273887299999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>1.4905561768664401E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12865,13 +12865,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>2.7431129739448501E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C4">
-        <v>2.9095065399201901E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>2.4851515056088101E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12879,13 +12879,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>1.32420853340135E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>1.7745336790013298E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>8.4975869867672596E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12893,13 +12893,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>3.8796283435456103E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C6">
-        <v>5.4555589578135499E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D6">
-        <v>2.2032614871859799E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12907,13 +12907,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>3.9531767415313203E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C7">
-        <v>5.5046428912377099E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D7">
-        <v>2.3441732700716401E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12921,13 +12921,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>2.7353291863149099E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C8">
-        <v>4.1141430218093099E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D8">
-        <v>1.27452905585055E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12935,13 +12935,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>1.45205920646879E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C9">
-        <v>7.1433673833845301E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D9">
-        <v>2.23526733753153E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12949,13 +12949,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>2.6572372197383301E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C10">
-        <v>4.4786512048428102E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10">
-        <v>7.3749915879002198E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12963,13 +12963,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>3.0189491972811799E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>4.6638995573870398E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D11">
-        <v>1.2859469754256701E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12977,13 +12977,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>3.09082975458983E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C12">
-        <v>2.1927814866593499E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D12">
-        <v>4.0427261963642498E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12991,13 +12991,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>3.6922571616200502E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C13">
-        <v>4.0754722033829398E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D13">
-        <v>3.2762806805526699E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13005,13 +13005,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>1.9160247178974001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C14">
-        <v>2.62315391037506E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D14">
-        <v>1.15200341352199E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13019,13 +13019,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>2.1356038200704801E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C15">
-        <v>1.8539168952935E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D15">
-        <v>2.42682917340462E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13033,13 +13033,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>3.4013266288855697E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C16">
-        <v>4.4742519953000097E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D16">
-        <v>2.2961020502631501E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
   </sheetData>
